--- a/data/特征.xlsx
+++ b/data/特征.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rilke\Desktop\比赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_file\credit_score\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07916B6-D8E9-4054-B422-3889DFF799C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD8DC9-1184-4A6D-AEE3-24E632E3A21A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23540" yWindow="-110" windowWidth="23650" windowHeight="12936" xr2:uid="{331626E7-7703-4FC8-99A1-BC9A25A38CB8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23650" windowHeight="12936" xr2:uid="{331626E7-7703-4FC8-99A1-BC9A25A38CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>用户年龄</t>
   </si>
@@ -45,233 +45,260 @@
     <t>用户最近一次缴费距今时长（月）</t>
   </si>
   <si>
+    <t>用户当月账户余额（元）</t>
+  </si>
+  <si>
+    <t>缴费用户当前是否欠费缴费</t>
+  </si>
+  <si>
+    <t>用户话费敏感度</t>
+  </si>
+  <si>
+    <t>当月通话交往圈人数</t>
+  </si>
+  <si>
+    <t>是否经常逛商场的人</t>
+  </si>
+  <si>
+    <t>当月是否逛过福州仓山万达</t>
+  </si>
+  <si>
+    <t>当月是否到过福州山姆会员店</t>
+  </si>
+  <si>
+    <t>当月是否看电影</t>
+  </si>
+  <si>
+    <t>当月是否景点游览</t>
+  </si>
+  <si>
+    <t>当月是否体育场馆消费</t>
+  </si>
+  <si>
+    <t>当月视频播放类应用使用次数</t>
+  </si>
+  <si>
+    <t>当月飞机类应用使用次数</t>
+  </si>
+  <si>
+    <t>当月火车类应用使用次数</t>
+  </si>
+  <si>
+    <t>当月旅游资讯类应用使用次数</t>
+  </si>
+  <si>
+    <t>身份特质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履约能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脉关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAS 元素类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费偏好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违约历史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近期行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交往人员数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原有特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户历史消费总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户网龄（月）* 用户近6个月平均消费值（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端消费评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由以上6个“是否”特征加权加合加合构成，构成后删除原有特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 or 0</t>
+  </si>
+  <si>
+    <t>1 or 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按比例分5级，详见官网说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户消费趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账单当月总费用（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户近6个月平均消费值（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账单当月总费用（元）- 用户近6个月平均消费值（元），为正值取1表示消费趋势上涨，否则取0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户不良记录种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上3种不良行为直接加合构成，构成后不删除原有特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值（只有0,1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账单当月总费用（元）/（用户近6个月平均消费值（元）+5），分母+5是为了平滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近三个月月均商场出现次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近三个月月均商场出现次数（归一化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归一化后drop掉原数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当月网购类应用使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户实名制是否通过核实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否线下充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 or 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若缴费用户最近一次缴费金额（元）%10为0且不为0则取1，否则取0。该特征在main2有正收益，在main1取得负收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出行指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对飞机类应用、火车类应用分别新建一列：当为0时取0，不为0时取1；对旅游资讯类应用新建一列：为0时取0，(0,50]取1，大于50取2。对上述新建三列加合得到该特征，构成后删除新建的三列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>缴费用户最近一次缴费金额（元）</t>
-  </si>
-  <si>
-    <t>用户当月账户余额（元）</t>
-  </si>
-  <si>
-    <t>缴费用户当前是否欠费缴费</t>
-  </si>
-  <si>
-    <t>用户话费敏感度</t>
-  </si>
-  <si>
-    <t>当月通话交往圈人数</t>
-  </si>
-  <si>
-    <t>是否经常逛商场的人</t>
-  </si>
-  <si>
-    <t>当月是否逛过福州仓山万达</t>
-  </si>
-  <si>
-    <t>当月是否到过福州山姆会员店</t>
-  </si>
-  <si>
-    <t>当月是否看电影</t>
-  </si>
-  <si>
-    <t>当月是否景点游览</t>
-  </si>
-  <si>
-    <t>当月是否体育场馆消费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当月物流快递类应用使用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当月金融理财类应用使用总次数</t>
-  </si>
-  <si>
-    <t>当月视频播放类应用使用次数</t>
-  </si>
-  <si>
-    <t>当月飞机类应用使用次数</t>
-  </si>
-  <si>
-    <t>当月火车类应用使用次数</t>
-  </si>
-  <si>
-    <t>当月旅游资讯类应用使用次数</t>
-  </si>
-  <si>
-    <t>身份特质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>履约能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信用历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脉关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAS 元素类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性指标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费偏好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>违约历史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近期行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前账户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交往人员数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原有特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户历史消费总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户网龄（月）* 用户近6个月平均消费值（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高端消费评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由以上6个“是否”特征加权加合加合构成，构成后删除原有特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 or 0</t>
-  </si>
-  <si>
-    <t>1 or 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按比例分5级，详见官网说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户消费趋势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账单当月总费用（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户近6个月平均消费值（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账单当月总费用（元）- 用户近6个月平均消费值（元），为正值取1表示消费趋势上涨，否则取0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户不良记录种类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上3种不良行为直接加合构成，构成后不删除原有特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值（只有0,1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费稳定性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账单当月总费用（元）/（用户近6个月平均消费值（元）+5），分母+5是为了平滑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近三个月月均商场出现次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近三个月月均商场出现次数（归一化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>归一化后drop掉原数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当月网购类应用使用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户实名制是否通过核实</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,29 +446,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,15 +790,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B408ACE-EEF9-4A34-868D-D66D4AA678CD}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="30" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="5"/>
@@ -781,497 +808,525 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="I2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="6"/>
+      <c r="I2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="I4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="7"/>
+      <c r="I4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8" t="s">
-        <v>61</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>32</v>
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8" t="s">
-        <v>64</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="42.1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>37</v>
-      </c>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:6" ht="56.15" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
+    <row r="26" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
+      <c r="A30" s="12"/>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>36</v>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8" t="s">
-        <v>58</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>59</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
+    <row r="36" spans="1:6" ht="28.1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A33:A36"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B8:B16"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A8:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B8:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="A8:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
